--- a/check3.xlsx
+++ b/check3.xlsx
@@ -563,46 +563,62 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="E2" t="n">
-        <v>65</v>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.6</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>-83</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-96740661</v>
-      </c>
-      <c r="K2" t="n">
-        <v>92.3</v>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-42</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>-54</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>71739899.0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>93.8</t>
+        </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -630,16 +646,20 @@
           <t>19.20</t>
         </is>
       </c>
-      <c r="S2" t="n">
-        <v>7.65</v>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
           <t>24.36</t>
         </is>
       </c>
-      <c r="U2" t="n">
-        <v>75.89</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>75.89</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -665,46 +685,62 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>792</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-65</v>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>736.0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>19.75</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>68</v>
-      </c>
-      <c r="H3" t="n">
-        <v>30</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1082574</v>
-      </c>
-      <c r="K3" t="n">
-        <v>788</v>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-65</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>-545503.0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>765.0</t>
+        </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -732,16 +768,20 @@
           <t>271.21</t>
         </is>
       </c>
-      <c r="S3" t="n">
-        <v>55.49</v>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>55.49</t>
+        </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
           <t>21.14</t>
         </is>
       </c>
-      <c r="U3" t="n">
-        <v>105.68</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>105.68</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -767,46 +807,62 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>120.5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-40</v>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-0.88</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>112.5</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-65.0</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>14.12</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>-54</v>
-      </c>
-      <c r="H4" t="n">
-        <v>127</v>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-946532</v>
-      </c>
-      <c r="K4" t="n">
-        <v>119</v>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-82</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>-287129.0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>116.5</t>
+        </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -834,16 +890,20 @@
           <t>51.76</t>
         </is>
       </c>
-      <c r="S4" t="n">
-        <v>35.79</v>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>35.79</t>
+        </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
           <t>14.51</t>
         </is>
       </c>
-      <c r="U4" t="n">
-        <v>26.87</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>26.87</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -869,46 +929,62 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="D5" t="n">
-        <v>21.85</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-90</v>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-1.84</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>-32</v>
-      </c>
-      <c r="H5" t="n">
-        <v>-21</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>-10428701</v>
-      </c>
-      <c r="K5" t="n">
-        <v>21.75</v>
+          <t>2.7</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>-22953830.0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -936,12 +1012,20 @@
           <t>19.90</t>
         </is>
       </c>
-      <c r="S5" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="n">
-        <v>73.97</v>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>73.97</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -967,46 +1051,62 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="D6" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="E6" t="n">
-        <v>40</v>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-1.54</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>-64</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-55</v>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>62773223</v>
-      </c>
-      <c r="K6" t="n">
-        <v>38.1</v>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-44</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>9350258.0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>37.65</t>
+        </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>-2.33</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1034,16 +1134,20 @@
           <t>22.18</t>
         </is>
       </c>
-      <c r="S6" t="n">
-        <v>8.67</v>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
           <t>19.07</t>
         </is>
       </c>
-      <c r="U6" t="n">
-        <v>31.47</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>31.47</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1069,46 +1173,62 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="D7" t="n">
-        <v>268</v>
-      </c>
-      <c r="E7" t="n">
-        <v>40</v>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>273.0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>-38</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-41</v>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-1584938202</v>
-      </c>
-      <c r="K7" t="n">
-        <v>272</v>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-54</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-1207656572.0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>283.5</t>
+        </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1136,16 +1256,20 @@
           <t>75.85</t>
         </is>
       </c>
-      <c r="S7" t="n">
-        <v>105.16</v>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>105.16</t>
+        </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
           <t>22.91</t>
         </is>
       </c>
-      <c r="U7" t="n">
-        <v>75.89</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>75.89</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1171,46 +1295,62 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="D8" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="E8" t="n">
-        <v>90</v>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-0.93</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>-2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>29</v>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>-160911988</v>
-      </c>
-      <c r="K8" t="n">
-        <v>32.1</v>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>-374760840.0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>31.1</t>
+        </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>-2.05</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>-3.12</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1238,16 +1378,20 @@
           <t>16.76</t>
         </is>
       </c>
-      <c r="S8" t="n">
-        <v>7.11</v>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
           <t>21.33</t>
         </is>
       </c>
-      <c r="U8" t="n">
-        <v>31.47</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>31.47</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1273,46 +1417,62 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="D9" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>90</v>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-0.36</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>-89</v>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>-70715140</v>
-      </c>
-      <c r="K9" t="n">
-        <v>14.2</v>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-53</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-79</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>-98855078.0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1340,12 +1500,20 @@
           <t>8.04</t>
         </is>
       </c>
-      <c r="S9" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="n">
-        <v>65.03</v>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>65.03</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1371,46 +1539,62 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="D10" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-40</v>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>8.77</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>11</v>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>-2265737162</v>
-      </c>
-      <c r="K10" t="n">
-        <v>100.5</v>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-46</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-27</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>274283105.0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>101.5</t>
+        </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1438,16 +1622,20 @@
           <t>37.38</t>
         </is>
       </c>
-      <c r="S10" t="n">
-        <v>15.99</v>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>15.99</t>
+        </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>18.90</t>
-        </is>
-      </c>
-      <c r="U10" t="n">
-        <v>75.89</v>
+          <t>18.9</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>75.89</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1473,46 +1661,62 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="D11" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-90</v>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-0.83</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-95.0</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>-44</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-28</v>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>-821</v>
-      </c>
-      <c r="K11" t="n">
-        <v>31.1</v>
+          <t>17.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-18</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-3273.0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1540,16 +1744,20 @@
           <t>26.98</t>
         </is>
       </c>
-      <c r="S11" t="n">
-        <v>12.46</v>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>12.46</t>
+        </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
           <t>153.33</t>
         </is>
       </c>
-      <c r="U11" t="n">
-        <v>48.6</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>48.6</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1575,46 +1783,62 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>-1.53</v>
-      </c>
-      <c r="D12" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="E12" t="n">
-        <v>40</v>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-0.22</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>91.3</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-50.0</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>12.67</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>139</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>-111369452</v>
-      </c>
-      <c r="K12" t="n">
-        <v>96.2</v>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>-137245307.0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1642,16 +1866,20 @@
           <t>34.67</t>
         </is>
       </c>
-      <c r="S12" t="n">
-        <v>23.79</v>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
           <t>15.46</t>
         </is>
       </c>
-      <c r="U12" t="n">
-        <v>21.86</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>21.86</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1677,46 +1905,62 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>-0.31</v>
-      </c>
-      <c r="D13" t="n">
-        <v>32.35</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-90</v>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-0.32</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>31.5</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>13.75</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>12</v>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>-1242873940</v>
-      </c>
-      <c r="K13" t="n">
-        <v>32.5</v>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-39</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-19</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>-799080729.0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>31.5</t>
+        </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>-1.1</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1744,16 +1988,20 @@
           <t>31.94</t>
         </is>
       </c>
-      <c r="S13" t="n">
-        <v>5.31</v>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
           <t>27.86</t>
         </is>
       </c>
-      <c r="U13" t="n">
-        <v>21.33</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>

--- a/check3.xlsx
+++ b/check3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,90 +466,95 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Trend</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>短交易量</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>遠交易量</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>量增</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>now_price</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>change_quote</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
@@ -563,115 +568,120 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>-1.73</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.6</t>
+          <t>84.5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>均線:下降趨勢</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-54</t>
+          <t>-61</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>-51</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>71739899.0</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>93.8</t>
+          <t>-91602916.0</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>84.5</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>-2.65</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>迎廣</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>19.20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>7.65</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>24.36</t>
-        </is>
-      </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>75.89</t>
+          <t>22.3</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>8271</t>
+          <t>68.43</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
+          <t>7736</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
           <t>伺服器41.64%、電腦機殼39.82%、其他零配件11.69%、電源供應器4.11%、散熱模組2.74% (2023年)</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>迎廣-電腦及週邊設備業-上市</t>
         </is>
@@ -685,115 +695,120 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>-2.12</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>736.0</t>
+          <t>690.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-65</t>
+          <t>均線:下降趨勢</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>-48</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>-27</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>-545503.0</t>
-        </is>
-      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>765.0</t>
+          <t>-171069.0</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>690.0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>-2.54</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>譜瑞-KY</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
       <c r="R3" t="inlineStr">
         <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
           <t>271.21</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>55.49</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>21.14</t>
-        </is>
-      </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>105.68</t>
+          <t>22.41</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>53729</t>
+          <t>91.24</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
+          <t>56974</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
           <t>高速訊號傳輸介面晶片42.39%、DisplayPort系列(DP)37.69%、Source Drivers17.39%、TrueTouch系列2.52% (2023年)</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>譜瑞-KY-半導體業-上櫃</t>
         </is>
@@ -807,115 +822,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-8.1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>112.5</t>
+          <t>101.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>20.94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-82</t>
+          <t>均線:下降趨勢</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>154</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>-50</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>-287129.0</t>
-        </is>
-      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>116.5</t>
+          <t>-248167.0</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>101.0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>-3.81</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>緯軟</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>資訊服務業</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
       <c r="R4" t="inlineStr">
         <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
           <t>51.76</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>35.79</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>14.51</t>
-        </is>
-      </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>26.87</t>
+          <t>12.99</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>8354</t>
+          <t>26.06</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
+          <t>7479</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
           <t>技術服務100.00% (2023年)</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>緯軟-資訊服務業-上櫃</t>
         </is>
@@ -929,115 +949,120 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-1.84</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21.3</t>
+          <t>21.1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-56</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>-22953830.0</t>
-        </is>
-      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21.05</t>
+          <t>9621759.0</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-1.17</t>
+          <t>21.1</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>-1.17</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
           <t>元翎</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>19.90</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>1.43</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>73.97</t>
-        </is>
-      </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>4522</t>
+          <t>72.58</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
+          <t>4319</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
           <t>高壓鋼瓶51.40%、安全氣囊氣體發生器42.75%、其他5.86% (2023年)</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>元翎-電機機械-上市</t>
         </is>
@@ -1051,115 +1076,120 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-1.54</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>37.9</t>
+          <t>36.55</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-44</t>
+          <t>-33</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>-49</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>9350258.0</t>
-        </is>
-      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>37.65</t>
+          <t>67325859.0</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-2.33</t>
+          <t>36.55</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>-0.95</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>毅嘉</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
       <c r="R6" t="inlineStr">
         <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>22.18</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>8.67</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>19.07</t>
-        </is>
-      </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>31.47</t>
+          <t>17.67</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>12317</t>
+          <t>30.84</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
+          <t>11410</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
           <t>電子整合元件81.68%、機構整合元件產品18.32% (2023年)</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>毅嘉-電子零組件業-上市</t>
         </is>
@@ -1173,115 +1203,120 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>273.0</t>
+          <t>252.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>均線:下降趨勢</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-54</t>
+          <t>-51</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>-1207656572.0</t>
-        </is>
-      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>283.5</t>
+          <t>-599632061.0</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>252.0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>-0.2</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>技嘉</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
       <c r="R7" t="inlineStr">
         <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>75.85</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>105.16</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>22.91</t>
-        </is>
-      </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>75.89</t>
+          <t>20.8</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>189243</t>
+          <t>68.43</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
+          <t>171826</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
           <t>板卡產品55.02%、其他44.98% (2023年)</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>技嘉-電腦及週邊設備業-上市</t>
         </is>
@@ -1295,115 +1330,120 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>32.1</t>
+          <t>29.6</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>均線:下降趨勢</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>-70</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>-374760840.0</t>
-        </is>
-      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>31.1</t>
+          <t>-128763406.0</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-2.05</t>
+          <t>29.6</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-3.12</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>燿華</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>16.76</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>7.11</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>21.33</t>
-        </is>
-      </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>31.47</t>
+          <t>20.94</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>21637</t>
+          <t>30.84</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
+          <t>21247</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
           <t>十層板以上43.06%、八層印刷電路板26.02%、六層印刷電路板17.62%、四層印刷電路板10.79%、雙面印刷電路板(PCB)2.24%、其他0.27% (2023年)</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>燿華-電子零組件業-上市</t>
         </is>
@@ -1417,115 +1457,120 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13.65</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-53</t>
+          <t>均線:下降趨勢</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-79</t>
+          <t>-33</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>-82</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>-98855078.0</t>
-        </is>
-      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>13.85</t>
+          <t>-50687565.0</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>錸德</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>8.04</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>2.62</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>65.03</t>
-        </is>
-      </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>10648</t>
+          <t>61.7</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
+          <t>9261</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
           <t>光學產品及週邊設備84.47%、其他15.53% (2023年)</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>錸德-光電業-上市</t>
         </is>
@@ -1539,115 +1584,120 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>101.0</t>
+          <t>107.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-46</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>-20</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>274283105.0</t>
-        </is>
-      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>101.5</t>
+          <t>854744696.0</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>107.0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>光寶科</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
       <c r="R10" t="inlineStr">
         <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>37.38</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>15.99</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>18.9</t>
-        </is>
-      </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>75.89</t>
+          <t>20.11</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>238246</t>
+          <t>68.43</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
+          <t>253503</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
           <t>資訊及消費性電子44.39%、雲端及物聯網34.99%、光電通訊20.62% (2023年)</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>光寶科-電腦及週邊設備業-上市</t>
         </is>
@@ -1661,115 +1711,120 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>30.15</t>
+          <t>28.75</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-95.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>17.25</t>
+          <t>17.54</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>均線:下降趨勢</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>87</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>-3273.0</t>
-        </is>
-      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>30.25</t>
+          <t>-3072.0</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>28.75</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
           <t>宏佳騰</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>26.98</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>12.46</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>153.33</t>
-        </is>
-      </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>137.86</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>41.51</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
+          <t>2158</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
           <t>ATV/ UTV68.65%、摩托車13.18%、電動車輛12.13%、零組件及其他6.04% (2023年)</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>宏佳騰-電機機械-上櫃</t>
         </is>
@@ -1783,115 +1838,120 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>91.3</t>
+          <t>92.2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>12.28</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>-72</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>-137245307.0</t>
-        </is>
-      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>93.0</t>
+          <t>-26917890.0</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>92.2</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
           <t>卜蜂</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>食品工業</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
       <c r="R12" t="inlineStr">
         <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>34.67</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>23.79</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>15.46</t>
-        </is>
-      </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>21.86</t>
+          <t>14.73</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>28713</t>
+          <t>19.52</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
+          <t>27357</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
           <t>農畜牧肉品44.19%、飼料及加工性熟料31.65%、消費食品24.15% (2023年)</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>卜蜂-食品工業-上市</t>
         </is>
@@ -1905,115 +1965,120 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>31.5</t>
+          <t>31.7</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>30.73</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-39</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>60</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>-20</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>-799080729.0</t>
-        </is>
-      </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>31.5</t>
+          <t>1075464633.0</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>-1.1</t>
+          <t>31.7</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>台泥</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
       <c r="R13" t="inlineStr">
         <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>31.94</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>5.31</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>27.86</t>
-        </is>
-      </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>21.33</t>
+          <t>26.76</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>250322</t>
+          <t>20.42</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
+          <t>240505</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
           <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>台泥-水泥工業-上市</t>
         </is>

--- a/check3.xlsx
+++ b/check3.xlsx
@@ -568,27 +568,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1.73</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>84.5</t>
+          <t>85.7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -598,12 +598,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-61</t>
+          <t>-79</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>-53</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -613,17 +613,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-91602916.0</t>
+          <t>8139249.0</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>84.5</t>
+          <t>85.7</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>-2.65</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -695,42 +695,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-2.12</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>690.0</t>
+          <t>709.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>均線:下降趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-48</t>
+          <t>-33</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-37</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-171069.0</t>
+          <t>113617.0</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>690.0</t>
+          <t>709.0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-2.54</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -822,27 +822,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-8.1</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>101.0</t>
+          <t>103.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-95.0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>20.94</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -852,12 +852,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>-72</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-50</t>
+          <t>-54</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -867,17 +867,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>-248167.0</t>
+          <t>-174281.0</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>101.0</t>
+          <t>103.0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-3.81</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -949,27 +949,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21.1</t>
+          <t>21.4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -994,17 +994,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>9621759.0</t>
+          <t>11015134.0</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21.1</t>
+          <t>21.4</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1076,27 +1076,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>36.55</t>
+          <t>36.75</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-33</t>
+          <t>-38</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1121,17 +1121,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>67325859.0</t>
+          <t>-25580559.0</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>36.55</t>
+          <t>36.75</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-0.95</t>
+          <t>-1.61</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1203,27 +1203,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>252.0</t>
+          <t>255.5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1233,12 +1233,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>-68</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1248,17 +1248,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-599632061.0</t>
+          <t>842529327.0</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>252.0</t>
+          <t>255.5</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>-0.2</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1330,42 +1330,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>29.6</t>
+          <t>30.1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>均線:下降趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-70</t>
+          <t>-63</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1375,17 +1375,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>-128763406.0</t>
+          <t>100945555.0</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>29.6</t>
+          <t>30.1</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1457,42 +1457,42 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>13.35</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>均線:下降趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-33</t>
+          <t>-35</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-82</t>
+          <t>-81</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1502,12 +1502,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>-50687565.0</t>
+          <t>75624108.0</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>13.35</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1584,12 +1584,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.82</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1614,12 +1614,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>854744696.0</t>
+          <t>39537123.0</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1711,27 +1711,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28.75</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>-100.0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>17.54</t>
+          <t>9.36</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1741,12 +1741,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1756,17 +1756,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>-3072.0</t>
+          <t>189.0</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>28.75</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-1.19</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1838,62 +1838,62 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>92.9</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-76</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>13779643.0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>92.9</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
           <t>0.0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>92.2</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>-72</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>-26917890.0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>92.2</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>-0.75</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1965,27 +1965,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>31.7</t>
+          <t>31.8</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>30.73</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1995,12 +1995,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>-32</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2010,17 +2010,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1075464633.0</t>
+          <t>622330771.0</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>31.7</t>
+          <t>31.8</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">

--- a/check3.xlsx
+++ b/check3.xlsx
@@ -618,17 +618,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>85.7</t>
+          <t>85.0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-2.19</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.82</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -745,17 +745,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>709.0</t>
+          <t>700.0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-1.96</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-1.27</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -872,17 +872,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>103.0</t>
+          <t>105.0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -999,17 +999,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21.4</t>
+          <t>21.65</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1126,17 +1126,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>36.75</t>
+          <t>36.8</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-1.61</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>255.5</t>
+          <t>253.5</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
+          <t>-1.36</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>-0.78</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0.00</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1380,17 +1380,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>30.1</t>
+          <t>30.55</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1507,17 +1507,17 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>13.35</t>
+          <t>13.4</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1634,17 +1634,17 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>107.0</t>
+          <t>109.0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>-1.19</t>
+          <t>-1.69</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1888,17 +1888,17 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>92.9</t>
+          <t>92.8</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -2015,17 +2015,17 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>31.8</t>
+          <t>31.85</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">

--- a/check3.xlsx
+++ b/check3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,505 +471,585 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>短交易量o</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>遠交易量o</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>短交易量</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>遠交易量</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>highlight</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>highlight_date</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>量增</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>now_price</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>change_quote</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>diff_quote</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Type0</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Type1</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Type2</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>殖利率</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>每股淨值(元)</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>每股營收(元)</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>本益比</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>同業平均本益比</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>總市值</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>營收比重</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>now_price</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>change_quote</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>diff_quote</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Type0</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Type1</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Type2</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>殖利率</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>每股淨值(元)</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>每股營收(元)</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>本益比</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>同業平均本益比</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>總市值</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>營收比重</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Type</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6117</t>
+          <t>6830</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>85.7</t>
+          <t>170.5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>均線:下降趨勢</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-79</t>
+          <t>150.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-53</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>8139249.0</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>85.0</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>-2.19</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>-0.82</t>
-        </is>
-      </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>迎廣</t>
+          <t>170.5</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>汎銓</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>其他電子業</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>19.20</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>7.65</t>
-        </is>
-      </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>22.3</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>68.43</t>
+          <t>60.36</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>7736</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>伺服器41.64%、電腦機殼39.82%、其他零配件11.69%、電源供應器4.11%、散熱模組2.74% (2023年)</t>
+          <t>75.44</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>迎廣-電腦及週邊設備業-上市</t>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>8829</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>分析服務100.00% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>汎銓-其他電子業-上市</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>23236986.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4966</t>
+          <t>6451</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>709.0</t>
+          <t>242.5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>21.68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-33</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>-22</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>113617.0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>700.0</t>
-        </is>
-      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>NaT</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>-1.27</t>
+          <t>False</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>譜瑞-KY</t>
+          <t>242.5</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
+          <t>-0.21</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>訊芯-KY</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>271.21</t>
-        </is>
-      </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>55.49</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>22.41</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>91.24</t>
+          <t>61.97</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>56974</t>
+          <t>12.83</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>高速訊號傳輸介面晶片42.39%、DisplayPort系列(DP)37.69%、Source Drivers17.39%、TrueTouch系列2.52% (2023年)</t>
+          <t>144.35</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>譜瑞-KY-半導體業-上櫃</t>
+          <t>47.1</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>26060</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>高速光纖收發模組64.42%、系統模組封裝產品35.58% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>訊芯-KY-半導體業-上市</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>1640612926.0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4953</t>
+          <t>6285</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>103.0</t>
+          <t>142.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-95.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>13.21</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>均線:下降趨勢</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-72</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-54</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>-23</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>-174281.0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>105.0</t>
-        </is>
-      </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>NaT</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>False</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>緯軟</t>
+          <t>142.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>啟碁</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>51.76</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>35.79</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>12.99</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>26.06</t>
+          <t>63.38</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>7479</t>
+          <t>53.51</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>技術服務100.00% (2023年)</t>
+          <t>20.85</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>緯軟-資訊服務業-上櫃</t>
+          <t>40.14</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>68898</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>無線通訊產品96.85%、其他3.15% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>啟碁-通信網路業-上市</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>1618853536.0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4576</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>-1.33</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21.4</t>
+          <t>145.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>15.22</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -979,114 +1059,134 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-30</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>-40</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>11015134.0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>21.65</t>
-        </is>
-      </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>NaT</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>False</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>元翎</t>
+          <t>145.0</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
+          <t>-3.33</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>大銀微系統</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>19.90</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>72.58</t>
+          <t>31.72</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>4319</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>高壓鋼瓶51.40%、安全氣囊氣體發生器42.75%、其他5.86% (2023年)</t>
+          <t>604.17</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>元翎-電機機械-上市</t>
+          <t>72.79</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>17371</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>精密運動及控制元件57.08%、微米與奈米級定位系統41.81%、其他1.11% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>大銀微系統-電機機械-上市</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>229926661.0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2402</t>
+          <t>4566</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>36.75</t>
+          <t>71.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1096,134 +1196,154 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:下降趨勢</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-38</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-49</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>-68</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>-25580559.0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>36.8</t>
-        </is>
-      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>NaT</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>False</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>毅嘉</t>
+          <t>71.0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>-0.7</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>時碩工業</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>電機機械</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>3.2</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>22.18</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>8.67</t>
-        </is>
-      </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>17.67</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>30.84</t>
+          <t>46.06</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>11410</t>
+          <t>11.81</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>電子整合元件81.68%、機構整合元件產品18.32% (2023年)</t>
+          <t>29.46</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>毅嘉-電子零組件業-上市</t>
+          <t>72.79</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>7726</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>汽車零件51.82%、工業應用42.67%、航太零組件5.51% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>時碩工業-電機機械-上市</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>-87324894.0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2376</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>255.5</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1233,378 +1353,438 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-68</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-25.0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>-81</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>842529327.0</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>253.5</t>
-        </is>
-      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>-1.36</t>
+          <t>NaT</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>False</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>技嘉</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>-0.82</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>信立</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>75.85</t>
+          <t>塑膠工業</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>105.16</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20.8</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>68.43</t>
+          <t>18.36</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>171826</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>板卡產品55.02%、其他44.98% (2023年)</t>
+          <t>10.66</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>技嘉-電腦及週邊設備業-上市</t>
+          <t>14.46</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>3808</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>PU合成皮(人造皮)75.91%、其他19.04%、PVC柔軟皮5.05% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>信立-塑膠工業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>-337383.0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2367</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>30.1</t>
+          <t>177.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>33.01</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-63</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>100945555.0</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>30.55</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>燿華</t>
+          <t>177.0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>日月光投控</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>16.76</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>7.11</t>
-        </is>
-      </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20.94</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>30.84</t>
+          <t>71.30</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>21247</t>
+          <t>36.94</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>十層板以上43.06%、八層印刷電路板26.02%、六層印刷電路板17.62%、四層印刷電路板10.79%、雙面印刷電路板(PCB)2.24%、其他0.27% (2023年)</t>
+          <t>23.63</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>燿華-電子零組件業-上市</t>
+          <t>47.1</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>780935</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>電子產品構裝技術及製造服務46.09%、封裝服務44.13%、測試服務8.57%、其他1.20% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>日月光投控-半導體業-上市</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>5336020918.0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2349</t>
+          <t>3379</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>275.0</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>-79</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>-0.35</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>13.35</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>均線:橫盤震盪</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>-35</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>-81</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>75624108.0</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>13.4</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>錸德</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>光電業</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>彬台</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>61.7</t>
+          <t>15.56</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>9261</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>光學產品及週邊設備84.47%、其他15.53% (2023年)</t>
+          <t>52.09</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>錸德-光電業-上市</t>
+          <t>41.41</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>2180</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>食品加工相關設備, 原材料與85.69%、食品飲料廠整廠工程及套裝工12.48%、勞務1.82% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>彬台-電機機械-上櫃</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>2733239.0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>3363</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>107.0</t>
+          <t>357.5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1614,473 +1794,700 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-17.0</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>-63</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>39537123.0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>109.0</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>357.5</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>上詮</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>37.38</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>15.99</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>20.11</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>68.43</t>
+          <t>25.15</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>253503</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>資訊及消費性電子44.39%、雲端及物聯網34.99%、光電通訊20.62% (2023年)</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>光寶科-電腦及週邊設備業-上市</t>
+          <t>112.76</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>37052</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>光纖通訊被動元件91.94%、其他8.06% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>上詮-通信網路業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>436113.0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1599</t>
+          <t>3294</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>-1.9</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>39.2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-100.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>31.55</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>均線:下降趨勢</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>96.0</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>142.0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2024-12-24</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>189.0</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>29.0</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>-1.69</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>宏佳騰</t>
+          <t>39.2</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>-6.67</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>英濟</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>26.98</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>12.46</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>137.86</t>
-        </is>
-      </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>41.51</t>
+          <t>17.42</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>2158</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>ATV/ UTV68.65%、摩托車13.18%、電動車輛12.13%、零組件及其他6.04% (2023年)</t>
+          <t>85.22</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>宏佳騰-電機機械-上櫃</t>
+          <t>59.87</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>5175</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>電子塑膠零組件89.10%、模具4.00%、生醫材2.38%、光電產品2.06%、產品開發2.06%、其他0.39% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>英濟-電子零組件業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>200979.0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1215</t>
+          <t>2855</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>92.9</t>
+          <t>26.15</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>9.85</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:下降趨勢</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-76</t>
+          <t>-16.0</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>-49</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>13779643.0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>92.8</t>
-        </is>
-      </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>NaT</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>False</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>卜蜂</t>
+          <t>26.15</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>食品工業</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>統一證</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>金融保險</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>34.67</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>23.79</t>
-        </is>
-      </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>14.73</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>19.52</t>
+          <t>23.61</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>27357</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>農畜牧肉品44.19%、飼料及加工性熟料31.65%、消費食品24.15% (2023年)</t>
+          <t>9.44</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>卜蜂-食品工業-上市</t>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>38070</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>股利收入38.38%、經紀手續費36.87%、營業證券出售損益24.38%、營業證券透過損益按公允價值18.12%、利息收入14.32%、其他營業收入6.15%、承銷業務1.09%、股務代理0.96%、財富管理0.59%、發行指數投資證券管理及手續0.09% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>統一證-金融保險-上市</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>36354560.0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1597</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>31.8</t>
+          <t>101.5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:下降趨勢</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>71.0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>-84</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>622330771.0</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>31.85</t>
-        </is>
-      </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>NaT</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>False</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>台泥</t>
+          <t>101.5</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>水泥工業</t>
+          <t>-2.4</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>直得</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>電機機械</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>31.94</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>26.76</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>20.42</t>
+          <t>27.07</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>240505</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
+          <t>147.1</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>台泥-水泥工業-上市</t>
+          <t>72.79</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>9060</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>線性滑軌及滑痤93.80%、線性馬達6.20% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>直得-電機機械-上市</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>-33309010.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1319</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>108.5</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-19.0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>-36</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>-19</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>108.5</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>-0.91</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>東陽</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>汽車工業</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>44.31</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>141.64</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>64175</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>自製-汽車零組件-塑件67.38%、自製-汽車零組件-鐵件14.60%、外購產品11.23%、其他6.79% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>東陽-汽車工業-上市</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>-332431266.0</t>
         </is>
       </c>
     </row>
